--- a/mieszkania.xlsx
+++ b/mieszkania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,104 +444,379 @@
           <t>url</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rooms</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>surface_area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>price_per_sqm</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>floor</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>5972</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>475 000 zł</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/przedwojenna-kamienica-72m22-pokojedo-aranz-ID4s8tt</t>
+          <t>https://www.otodom.pl/pl/oferta/okazja-idealne-jako-inwestycja-lub-na-wynajem-ID4siad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ul. II Poprzeczna, Anin, Wawer, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3 pokoje</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75m²</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>6333</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3 piętro</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>6333</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>544 300 zł</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/okazja-idealne-jako-inwestycja-lub-na-wynajem-ID4siad</t>
+          <t>https://www.otodom.pl/pl/oferta/mieszkanie-inwestycyjne-hostel-suterena-60-5m2-ID4scuI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ul. Michała Spisaka 109, Czechowice, Ursus, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2 pokoje</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.5m²</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>8997</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>suterena</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>6490</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>550 000 zł</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-104-m-warszawa-ID4oL1u</t>
+          <t>https://www.otodom.pl/pl/oferta/specjana-oferta-gotowka-do-negocjacji-ID4mKM0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ul. Literacka, Stara Miłosna, Wesoła, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2 pokoje</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60m²</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9167</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 piętro</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>6695</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>575 091 zł</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/atrakcyjne-mieszkanie-w-super-cenie-ID4smqZ</t>
+          <t>https://www.otodom.pl/pl/oferta/os-zamkniete-garaz-podziemny-winda-ID4snZ9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Stara Miłosna, Wesoła, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2 pokoje</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.09m²</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>9900</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1 piętro</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6866</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>602 550 zł</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-98-89-m2-2-miejsca-postojowe-i-ogrod-ID4pzHD</t>
+          <t>https://www.otodom.pl/pl/oferta/bezczynszowe-3-pokoje-w-super-cenie-duzy-balkon-ID4rPAM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ul. Lewandów, Grodzisk, Białołęka, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3 pokoje</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.5m²</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>10300</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 piętro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6990</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>604 610 zł</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/przestronne-mieszkanie-80m2-przy-lesie-ID4s6JZ</t>
+          <t>https://www.otodom.pl/pl/oferta/komfortowe-3-pokoje-blisko-komunikacja-ID4seHI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ul. Lewandów, Grodzisk, Białołęka, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3 pokoje</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>58.7m²</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10300</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 piętro</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7849</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>599 000 zł</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/5-pokojowe-ogrodek-2-miejsca-postojowe-ID4rJT4</t>
+          <t>https://www.otodom.pl/pl/oferta/3-pokojowe-mieszkanie-ogrodek-dwa-st-postojowe-ID4s6rs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Zacisze, Targówek, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3 pokoje</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>58m²</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10328</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>parter</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7981</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>599 000 zł</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-56-78-m2-poddasze-30-m2-henrykow-ID4skY7</t>
+          <t>https://www.otodom.pl/pl/oferta/4-pokojowe-mieszkanie-do-remontu-w-wawrze-ID4qX6a</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ul. Korkowa, Marysin Wawerski, Wawer, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4 pokoje</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.87m²</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10351</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4 piętro</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>8000</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>587 000 zł</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/gotowa-inwestycja-lokale-uslugowe-pokoje-ID4qmGT</t>
+          <t>https://www.otodom.pl/pl/oferta/3-pokoje-ciche-rembertow-56-m2-od-dewelopera-ID4mWAa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ul. Chełmżyńska, Kawęczyn-Wygoda, Rembertów, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3 pokoje</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.68m²</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10356</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2 piętro</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>8387</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>598 000 zł</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.otodom.pl/pl/oferta/mieszkanie-67m2-z-ogrodkiem-oraz-garazem-ID4snBc</t>
+          <t>https://www.otodom.pl/pl/oferta/nowe-mieszkanie-56m2-dostepne-od-zaraz-ID4qT9G</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ul. Marmurowa, Choszczówka, Białołęka, Warszawa, mazowieckie</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2 pokoje</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.4m²</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10794</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2 piętro</t>
         </is>
       </c>
     </row>
